--- a/documents/templates/bulk-upload/Roles.xlsx
+++ b/documents/templates/bulk-upload/Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Project\Balmer Lawrie\Server New\server\documents\templates\bulk-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5922C72-9F1A-43FB-9F84-75CA5FEA918F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398B55D-9F51-4B9F-9732-405BE5023C35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Admin</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Auditor</t>
+  </si>
+  <si>
+    <t>Ttat</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1046,9 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
@@ -1052,7 +1060,9 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
